--- a/data/trans_dic/P16A_n_R3-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02464888892583809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08791687610902819</v>
+        <v>0.08791687610902821</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0490414791085757</v>
@@ -685,7 +685,7 @@
         <v>0.06751729561034944</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1689913138398885</v>
+        <v>0.1689913138398886</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04103882070791478</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01860433587546316</v>
+        <v>0.01729788591159912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01808105415946273</v>
+        <v>0.01835125366046525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01633006745078669</v>
+        <v>0.01651140617248307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06572024090732674</v>
+        <v>0.06690281256216137</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03660952397631973</v>
+        <v>0.03662210849905682</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06234231501404094</v>
+        <v>0.06011634917966924</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05436835672963607</v>
+        <v>0.05341776854985197</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1464555405465987</v>
+        <v>0.1430823610506091</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0321823732345175</v>
+        <v>0.03116944211327027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04326659617856547</v>
+        <v>0.04363974309690025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03933058283717191</v>
+        <v>0.03942114551717141</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1179315052096479</v>
+        <v>0.1167245491828478</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0453819764898698</v>
+        <v>0.04411243040948387</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04040569512052198</v>
+        <v>0.04056188488652208</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03615874428438221</v>
+        <v>0.03558426179493077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1124006874772353</v>
+        <v>0.1162816233708924</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06796336316672774</v>
+        <v>0.06396702803205964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09395102318312011</v>
+        <v>0.09237312982699354</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08465384622852123</v>
+        <v>0.08199997595306964</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1953926492465066</v>
+        <v>0.1935294647101805</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05109048454823829</v>
+        <v>0.05167544260362478</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06331326251829582</v>
+        <v>0.06313525014639268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05700457210475419</v>
+        <v>0.0573707636228013</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1501397334707378</v>
+        <v>0.1525194133918088</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02504307390363978</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08144360204196126</v>
+        <v>0.08144360204196124</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006406419421612081</v>
+        <v>0.006460037647347668</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008432557023264656</v>
+        <v>0.008442144467609538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009865795450686464</v>
+        <v>0.009936164503110479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03672930326505246</v>
+        <v>0.03762826623081709</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.011353142864166</v>
+        <v>0.01163731132542735</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02372005877665918</v>
+        <v>0.02442215469654744</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02131331666696641</v>
+        <v>0.02282622238077087</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09654202342062777</v>
+        <v>0.09613230415876038</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01044232573724181</v>
+        <v>0.01098310335907128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01949315134021528</v>
+        <v>0.01904258162941432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01864512562798136</v>
+        <v>0.01803527712335119</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0727018611567367</v>
+        <v>0.07207075293593503</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01896507899850544</v>
+        <v>0.01983152603226374</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02917248001315663</v>
+        <v>0.02961037273108566</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02635637205185528</v>
+        <v>0.02703914150650977</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06077103103541585</v>
+        <v>0.06168302800399309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02872212194834354</v>
+        <v>0.0288717782524048</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04801853778532915</v>
+        <v>0.04793542792562867</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04431003547525549</v>
+        <v>0.04683838459796993</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1265969994169615</v>
+        <v>0.127369610716676</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02096823733009709</v>
+        <v>0.02132440692142649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03429750897397743</v>
+        <v>0.03403605647891637</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03276771438807174</v>
+        <v>0.03285730193510947</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09218958675069232</v>
+        <v>0.09179149297764311</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02971806066437849</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06610047023133457</v>
+        <v>0.06610047023133458</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01288091897324754</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005902599525794762</v>
+        <v>0.006015929197261467</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002571860275649675</v>
+        <v>0.00249960833656168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004528917115043397</v>
+        <v>0.005417539183992547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02766669031229466</v>
+        <v>0.02695688009531494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008499830761450333</v>
+        <v>0.008217513747797917</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02920902806405068</v>
+        <v>0.02977935858221322</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01811948551881429</v>
+        <v>0.01850274909490483</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05462147473381596</v>
+        <v>0.05510894143893702</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008451511484334075</v>
+        <v>0.008668453528648918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01714390542841448</v>
+        <v>0.01735486478495281</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01369622344187287</v>
+        <v>0.01331186878715422</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04323838817740213</v>
+        <v>0.04392236670613925</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01967047416516313</v>
+        <v>0.01967426024042669</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01518455194069851</v>
+        <v>0.0152705442156049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01933388012426918</v>
+        <v>0.01881217919447486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04869770198139388</v>
+        <v>0.04681528212806665</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02391239310026</v>
+        <v>0.02354635613112683</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05754066123781683</v>
+        <v>0.05779912783045627</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04373063055660561</v>
+        <v>0.04575763336547579</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07826317877316331</v>
+        <v>0.07859737257313373</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01871920110820099</v>
+        <v>0.01882595405589361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03294261007244638</v>
+        <v>0.0333530897348074</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02814826206126245</v>
+        <v>0.02750222594907924</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0589892830111466</v>
+        <v>0.05950691918920607</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004235366440310004</v>
+        <v>0.004570643402447631</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01053352060253838</v>
+        <v>0.01043649954143903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001850121056411286</v>
+        <v>0.002054452560385857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02886900342621487</v>
+        <v>0.02864977047473932</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005687742643563994</v>
+        <v>0.005776969875942094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01992140925873226</v>
+        <v>0.02021805228937508</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01213420749857517</v>
+        <v>0.01201752036552325</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04913412394507927</v>
+        <v>0.04864092006502329</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007930794364611526</v>
+        <v>0.007262660213644513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01872339743044768</v>
+        <v>0.0179460528087729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008682313702841294</v>
+        <v>0.008631377835072269</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04091908933439471</v>
+        <v>0.0410853248953622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02517916279049662</v>
+        <v>0.02592770767493504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04197882715169275</v>
+        <v>0.04298186026440992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01697421821682023</v>
+        <v>0.01815296730637939</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05027486003019154</v>
+        <v>0.0499955391244889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03435506908786842</v>
+        <v>0.03355886353650903</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05222573127187994</v>
+        <v>0.05440198784273077</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04177980385221259</v>
+        <v>0.04072980111071587</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07259449413604853</v>
+        <v>0.07192329187582398</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02635536918684844</v>
+        <v>0.02383870572558684</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04134450906285982</v>
+        <v>0.04037331494514871</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02479110422615962</v>
+        <v>0.02466974942211843</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05671988300849773</v>
+        <v>0.05728687191957124</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01647067550319286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04736654942268919</v>
+        <v>0.04736654942268918</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0255678075509531</v>
@@ -1229,7 +1229,7 @@
         <v>0.04312178554708699</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09538655150700007</v>
+        <v>0.09538655150700008</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02022569353821461</v>
@@ -1241,7 +1241,7 @@
         <v>0.03010454756544292</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0720994282309636</v>
+        <v>0.07209942823096359</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01138161901696798</v>
+        <v>0.01092947263430448</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01339981552735067</v>
+        <v>0.0137772289321236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01234278582208111</v>
+        <v>0.01239178999645351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04206946169979092</v>
+        <v>0.04159706655115426</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02030728460002106</v>
+        <v>0.02075185252085735</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04230901584148523</v>
+        <v>0.04221063306250052</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03663352611328175</v>
+        <v>0.03709461001962305</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08852208026620136</v>
+        <v>0.08860550744937969</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01693277569436916</v>
+        <v>0.01696134765811872</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02989289479384828</v>
+        <v>0.02990235801467759</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02607860780934398</v>
+        <v>0.0258688683531031</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06715301872794928</v>
+        <v>0.06775200698449486</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02020539592256646</v>
+        <v>0.01971053601081229</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02389295806052373</v>
+        <v>0.02391285895700963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02098475161882427</v>
+        <v>0.02157384428123551</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05435693427629527</v>
+        <v>0.05433460187166698</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03192698318810579</v>
+        <v>0.0323818423571791</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05662137658635148</v>
+        <v>0.05679244725818761</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05080414759472449</v>
+        <v>0.05049211880326216</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1030070676407171</v>
+        <v>0.1030475799566814</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0239814849245142</v>
+        <v>0.02369971199344097</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03894663671773619</v>
+        <v>0.03868883793384443</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03495736888124294</v>
+        <v>0.03453074630047139</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07696296507084077</v>
+        <v>0.07692075153810521</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10868</v>
+        <v>10104</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18875</v>
+        <v>19158</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18420</v>
+        <v>18625</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32777</v>
+        <v>33367</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33766</v>
+        <v>33778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>69819</v>
+        <v>67326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>68480</v>
+        <v>67283</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>91327</v>
+        <v>89223</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>48482</v>
+        <v>46956</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>93623</v>
+        <v>94430</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>93904</v>
+        <v>94120</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>132357</v>
+        <v>131002</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26509</v>
+        <v>25768</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42181</v>
+        <v>42344</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40787</v>
+        <v>40139</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56059</v>
+        <v>57994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62685</v>
+        <v>58999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>105218</v>
+        <v>103451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>106627</v>
+        <v>103284</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>121843</v>
+        <v>120681</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>76966</v>
+        <v>77848</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>137001</v>
+        <v>136616</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>136102</v>
+        <v>136976</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>168505</v>
+        <v>171176</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6905</v>
+        <v>6963</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8239</v>
+        <v>8249</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8966</v>
+        <v>9030</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35265</v>
+        <v>36128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12006</v>
+        <v>12307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25956</v>
+        <v>26724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21451</v>
+        <v>22974</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>107726</v>
+        <v>107269</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22299</v>
+        <v>23454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40377</v>
+        <v>39444</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35711</v>
+        <v>34543</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>150928</v>
+        <v>149618</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20442</v>
+        <v>21376</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28504</v>
+        <v>28931</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23953</v>
+        <v>24574</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>58349</v>
+        <v>59224</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30375</v>
+        <v>30533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>52545</v>
+        <v>52454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44597</v>
+        <v>47142</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>141263</v>
+        <v>142125</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44776</v>
+        <v>45537</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>71042</v>
+        <v>70500</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>62760</v>
+        <v>62932</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>191384</v>
+        <v>190558</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6620</v>
+        <v>6747</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2276</v>
+        <v>2212</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3731</v>
+        <v>4463</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28953</v>
+        <v>28210</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8448</v>
+        <v>8168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25581</v>
+        <v>26081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13971</v>
+        <v>14267</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>57224</v>
+        <v>57734</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17879</v>
+        <v>18338</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30189</v>
+        <v>30560</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21843</v>
+        <v>21230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>90546</v>
+        <v>91979</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22062</v>
+        <v>22067</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13440</v>
+        <v>13516</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15926</v>
+        <v>15497</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50961</v>
+        <v>48991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23767</v>
+        <v>23404</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50394</v>
+        <v>50620</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33719</v>
+        <v>35282</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81992</v>
+        <v>82342</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39601</v>
+        <v>39827</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>58009</v>
+        <v>58732</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44891</v>
+        <v>43861</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>123531</v>
+        <v>124615</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1894</v>
+        <v>2044</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5299</v>
+        <v>5250</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28174</v>
+        <v>27960</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1940</v>
+        <v>1971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9019</v>
+        <v>9153</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5942</v>
+        <v>5885</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>44729</v>
+        <v>44280</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6252</v>
+        <v>5726</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>17895</v>
+        <v>17152</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8651</v>
+        <v>8600</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77185</v>
+        <v>77498</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11260</v>
+        <v>11595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21116</v>
+        <v>21621</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8601</v>
+        <v>9198</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49065</v>
+        <v>48792</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11721</v>
+        <v>11449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23644</v>
+        <v>24630</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20459</v>
+        <v>19945</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66086</v>
+        <v>65475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20777</v>
+        <v>18793</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39515</v>
+        <v>38587</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24702</v>
+        <v>24581</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>106989</v>
+        <v>108059</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36772</v>
+        <v>35311</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45682</v>
+        <v>46969</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41562</v>
+        <v>41727</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>146456</v>
+        <v>144811</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>67318</v>
+        <v>68792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>149889</v>
+        <v>149541</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>129199</v>
+        <v>130825</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>327303</v>
+        <v>327611</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110839</v>
+        <v>111026</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>207811</v>
+        <v>207877</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>179788</v>
+        <v>178342</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>482071</v>
+        <v>486371</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65280</v>
+        <v>63681</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>81455</v>
+        <v>81522</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>70662</v>
+        <v>72645</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>189232</v>
+        <v>189154</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105837</v>
+        <v>107345</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200594</v>
+        <v>201200</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>179176</v>
+        <v>178075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>380860</v>
+        <v>381010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>156978</v>
+        <v>155134</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>270752</v>
+        <v>268960</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>240999</v>
+        <v>238058</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>552494</v>
+        <v>552191</v>
       </c>
     </row>
     <row r="24">
